--- a/src/electron/crawler/config/矽梦cim.xlsx
+++ b/src/electron/crawler/config/矽梦cim.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>流水號</t>
   </si>
@@ -27,133 +27,149 @@
     <t>content</t>
   </si>
   <si>
-    <t>【cimYL798】實拍韓國冰絲薄款針織防曬開衫230426</t>
-  </si>
-  <si>
-    <t>【cim5378】實拍復古印花不規則吊帶背心230426</t>
-  </si>
-  <si>
-    <t>【cim5379】實拍韓國百搭超顯瘦休閒直筒闊腿五分褲230426</t>
-  </si>
-  <si>
-    <t>【cim5377】實拍韓國氣質慵懶壓褶無袖洋裝230426</t>
-  </si>
-  <si>
-    <t>【cim5250】實拍韓國法式方領木耳邊繫帶洋裝230426</t>
-  </si>
-  <si>
-    <t>【cimYL991】實拍韓國春夏彈性親膚條紋針織小吊帶230426</t>
-  </si>
-  <si>
-    <t>【cim31018】實拍韓國帥氣polo領開拉鍊刺繡襯衫230426</t>
-  </si>
-  <si>
-    <t>【cim31013】實拍韓國復古水洗直筒高腰牛仔短褲230426</t>
-  </si>
-  <si>
-    <t>【cimYL997】實拍韓國流蘇裙~抽繩鬆緊腰條紋針織裙230426</t>
-  </si>
-  <si>
-    <t>【cim2232】實拍韓國小眾設計款~側邊綁帶高級感襯衫230426</t>
-  </si>
-  <si>
-    <t>【cim2230】實拍韓國復古甜美赫本V領格子泡泡袖襯衫230426</t>
-  </si>
-  <si>
-    <t>【cimYL930】實拍韓國設計感鏤空微透慵懶防曬針織衫230426</t>
-  </si>
-  <si>
-    <t>【cimXS6696】實拍韓國純欲圓領繫帶2穿針織衫230426</t>
-  </si>
-  <si>
-    <t>【cim5279】實拍韓國露肩一字領荷葉邊娃娃衫230426</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size in o】
-胸圍 100 肩寬 40 袖長 64 衣長 45 
-手工平鋪測量，誤差允許在2~5cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size in o】
-M 胸圍78 肩寬22 “袖長 / 衣長 48-66 
-L 胸圍82 肩寬 24 “袖長 / 衣長 50-68 
-手工平鋪測量，誤差允許在2~5cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size in o】
-M 腰圍 65 臀圍100“大腿圍68 裙長 47
-L 腰圍 68 臀圍102“大腿圍70 裙長49
-手工平鋪測量，誤差允許在2~5cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size in o】
-M 腰圍 寬鬆腰 肩寬 28 胸圍 115 裙長 117 
-L 腰圍 寬鬆腰 肩寬 30 胸圍 117 裙長 119 
-手工平鋪測量，誤差允許在2~5cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size in o】
-M 胸圍 120 肩寬 / 袖長 29 裙長 113 .
-L 胸圍 124 肩寬 / 袖長 31 裙長 115 .
-手工平鋪測量，誤差允許在2~5cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size in o】
-胸圍 64 肩寬 25 “袖長 / 衣長 49 .
-手工平鋪測量，誤差允許在2~5cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size in o】
-M 胸圍 120 肩寬 51 袖長 23 衣長 52 .
-L 胸圍 124 肩寬 53 袖長 25 衣長 54 .
-手工平鋪測量，誤差允許在2~5cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size in o】
-S 腰圍 64 臀圍92大腿圍60 裙長 41 
-M 腰圍 66 臀圍94大腿圍62 裙長 43
-L 腰圍 68 臀圍96 大腿圍64 裙長 45 
-手工平鋪測量，誤差允許在2~5cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size in o】
-腰圍 60-72 臀圍 80-100 裙長 80-85
-手工平鋪測量，誤差允許在2~5cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size in o】
-M 胸圍 90 肩連袖32 袖長 / 衣長 55 
-L 胸圍 92/ 肩連袖34 袖長 / 衣長58 
-手工平鋪測量，誤差允許在2~5cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size in o】
-M 胸圍 84 肩連袖25 袖長 / 衣長48
-L 胸圍 88 肩連袖27 袖長 / 衣長50
-手工平鋪測量，誤差允許在2~5cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size in o】
-胸圍 90 肩寬 39 “袖長 65 衣長 69 
-手工平鋪測量，誤差允許在2~5cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size in o】
-胸圍 70 肩連袖 21 衣長49
-手工平鋪測量，誤差允許在2~5cm左右，具體以實物為準</t>
-  </si>
-  <si>
-    <t>【尺 碼 信 息 x Size in o】
-M 胸圍 96 肩連袖 29 衣長 50 .
-L 胸圍 100 肩連袖39 衣長 50 .
-手工平鋪測量，誤差允許在2~5cm左右，具體以實物為準</t>
+    <t>【cim5380】實拍韓國自在簡約圓領無袖襯衫230503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 136 肩寬54 袖長 / 衣長73-79 
+L 胸圍 140 肩寬56 / 袖長 / 衣長75-81 
+全部以cm表示，手工測量可能存在1-3cm誤差
+MD：身高162cm 體重：48kg
+</t>
+  </si>
+  <si>
+    <t>【cim31021】實拍韓國復古小衫~高級感襯衫230503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍120 肩連袖60 袖長 / 衣長41-46 
+L 胸圍124 肩連袖62 袖長 / 衣長 43-48 
+全部以cm表示，手工測量可能存在1-3cm誤差
+MD：身高162cm 體重：48kg
+</t>
+  </si>
+  <si>
+    <t>【cimYL336】實拍韓國純色褶皺針織吊帶小背心（含胸墊）230503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+F 胸圍 62 肩寬 20 袖長 / 衣長 45 
+全部以cm表示，手工測量可能存在1-3cm誤差
+MD：身高162cm 體重：48kg
+</t>
+  </si>
+  <si>
+    <t>【cim31017】實拍韓國夏季顏色翻領簡約襯衫230503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 104 肩寬 51 袖長 3 衣長 56-61 
+L 胸圍 106 肩寬 53 袖長 5 衣長 58-63 
+全部以cm表示，手工測量可能存在1-3cm誤差
+MD：身高162cm 體重：48kg
+</t>
+  </si>
+  <si>
+    <t>【cim31019】實拍韓國舒適空氣皺皺褲！慵懶風垂感高腰休閒直筒闊腿褲230503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 腰圍60-72 臀圍106 大腿圍 62 褲長 93
+L 腰圍 64-74 臀圍108 大腿圍64 褲長 95
+XL 腰圍 68-76 臀圍110 大腿圍63 褲長 97
+全部以cm表示，手工測量可能存在1-3cm誤差
+MD：身高162cm 體重：48kg
+</t>
+  </si>
+  <si>
+    <t>【cim2250】實拍韓國夏季慵懶新色防曬襯衫230503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M胸圍114 肩寬48 袖長53 衣長69
+L 胸圍 116 肩寬 50 袖長 55 衣長71
+全部以cm表示，手工測量可能存在1-3cm誤差
+MD：身高162cm 體重：48kg
+</t>
+  </si>
+  <si>
+    <t>【cim7092】實拍法式復古印花設計款皺皺吊帶洋裝230503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 110 肩寬34 腰圍128 裙長128 
+L 胸圍 112 肩寬36 腰圍130 裙長130
+全部以cm表示，手工測量可能存在1-3cm誤差
+MD：身高162cm 體重：48kg
+</t>
+  </si>
+  <si>
+    <t>【cimYL328】實拍韓國温柔垂感很仙的冰絲長版防曬開衫230503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+F 胸圍 132 。肩連袖 64 袖長 / 衣長 109 
+全部以cm表示，手工測量可能存在1-3cm誤差
+MD：身高162cm 體重：48kg
+</t>
+  </si>
+  <si>
+    <t>【cim2239】實拍韓國夏日度假法式復古氣質皺皺碎花吊帶裙230503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 96 肩寬 24 臀圍/腰圍 105/90 。裙長 122 
+L 胸 胸圍 100 肩寬 26 臀圍/腰圍 107/92 。裙長 124 
+全部以cm表示，手工測量可能存在1-3cm誤差
+MD：身高162cm 體重：48kg
+</t>
+  </si>
+  <si>
+    <t>【cim2238】實拍韓國法式甜美一字領方領碎花上衣230503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 106 。 肩連袖 33 袖長 / 衣長 63 
+L 胸圍 110 。 肩連袖 35 袖長 / 衣長 65 
+全部以cm表示，手工測量可能存在1-3cm誤差
+MD：身高162cm 體重：48kg
+</t>
+  </si>
+  <si>
+    <t>【cim5376】實拍韓國氣質小眾V領抽褶襯衫230503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 102 肩連袖，袖長21 / 衣長 68
+L 胸圍106 肩連袖，袖長23 / 衣長70
+全部以cm表示，手工測量可能存在1-3cm誤差
+MD：身高162cm 體重：48kg
+</t>
+  </si>
+  <si>
+    <t>【cimYL337】實拍韓國夏季簍空修身開叉針織罩衫230503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+胸圍 60-86 肩寬 35 袖長 61 衣長 64 
+全部以cm表示，手工測量可能存在1-3cm誤差
+MD：身高162cm 體重：48kg</t>
+  </si>
+  <si>
+    <t>【cim2251】實拍韓國夏季薄軟短板復古水洗牛仔外套230503</t>
+  </si>
+  <si>
+    <t>M 胸圍100 肩寬40. 袖長27 / 衣長 42-45
+L 胸圍104 肩寬42 袖長29 / 衣長44-47
+全部以cm表示，手工測量可能存在1-3cm誤差
+MD：身高162cm 體重：48kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,6 +184,23 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="PingFang TC"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -193,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -201,8 +234,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,13 +529,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
@@ -504,121 +549,114 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="165.9">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="150.44999999999999">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="150.44999999999999">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="127.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="173.6">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="173.6">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="150.44999999999999">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="150.44999999999999">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="127.3">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="195.9">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="225.9">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="10" spans="1:2" ht="57.9">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="195.9">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="165.9">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="11" spans="1:2" ht="150.44999999999999">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="165.9">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="225.9">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="12" spans="1:2" ht="150.44999999999999">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="255.9">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="165.9">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="13" spans="1:2" ht="127.3">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="195.9">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="195.9">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="14" spans="1:2" ht="124.3">
+      <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="165.9">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="165.9">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="195.9">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.9"/>
-    <row r="17" ht="15.9"/>
-    <row r="18" ht="15.9"/>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/electron/crawler/config/矽梦cim.xlsx
+++ b/src/electron/crawler/config/矽梦cim.xlsx
@@ -27,142 +27,119 @@
     <t>content</t>
   </si>
   <si>
-    <t>【cim5380】實拍韓國自在簡約圓領無袖襯衫230503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍 136 肩寬54 袖長 / 衣長73-79 
-L 胸圍 140 肩寬56 / 袖長 / 衣長75-81 
-全部以cm表示，手工測量可能存在1-3cm誤差
-MD：身高162cm 體重：48kg
-</t>
-  </si>
-  <si>
-    <t>【cim31021】實拍韓國復古小衫~高級感襯衫230503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍120 肩連袖60 袖長 / 衣長41-46 
-L 胸圍124 肩連袖62 袖長 / 衣長 43-48 
-全部以cm表示，手工測量可能存在1-3cm誤差
-MD：身高162cm 體重：48kg
-</t>
-  </si>
-  <si>
-    <t>【cimYL336】實拍韓國純色褶皺針織吊帶小背心（含胸墊）230503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-F 胸圍 62 肩寬 20 袖長 / 衣長 45 
-全部以cm表示，手工測量可能存在1-3cm誤差
-MD：身高162cm 體重：48kg
-</t>
-  </si>
-  <si>
-    <t>【cim31017】實拍韓國夏季顏色翻領簡約襯衫230503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍 104 肩寬 51 袖長 3 衣長 56-61 
-L 胸圍 106 肩寬 53 袖長 5 衣長 58-63 
-全部以cm表示，手工測量可能存在1-3cm誤差
-MD：身高162cm 體重：48kg
-</t>
-  </si>
-  <si>
-    <t>【cim31019】實拍韓國舒適空氣皺皺褲！慵懶風垂感高腰休閒直筒闊腿褲230503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 腰圍60-72 臀圍106 大腿圍 62 褲長 93
-L 腰圍 64-74 臀圍108 大腿圍64 褲長 95
-XL 腰圍 68-76 臀圍110 大腿圍63 褲長 97
-全部以cm表示，手工測量可能存在1-3cm誤差
-MD：身高162cm 體重：48kg
-</t>
-  </si>
-  <si>
-    <t>【cim2250】實拍韓國夏季慵懶新色防曬襯衫230503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M胸圍114 肩寬48 袖長53 衣長69
-L 胸圍 116 肩寬 50 袖長 55 衣長71
-全部以cm表示，手工測量可能存在1-3cm誤差
-MD：身高162cm 體重：48kg
-</t>
-  </si>
-  <si>
-    <t>【cim7092】實拍法式復古印花設計款皺皺吊帶洋裝230503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍 110 肩寬34 腰圍128 裙長128 
-L 胸圍 112 肩寬36 腰圍130 裙長130
-全部以cm表示，手工測量可能存在1-3cm誤差
-MD：身高162cm 體重：48kg
-</t>
-  </si>
-  <si>
-    <t>【cimYL328】實拍韓國温柔垂感很仙的冰絲長版防曬開衫230503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-F 胸圍 132 。肩連袖 64 袖長 / 衣長 109 
-全部以cm表示，手工測量可能存在1-3cm誤差
-MD：身高162cm 體重：48kg
-</t>
-  </si>
-  <si>
-    <t>【cim2239】實拍韓國夏日度假法式復古氣質皺皺碎花吊帶裙230503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍 96 肩寬 24 臀圍/腰圍 105/90 。裙長 122 
-L 胸 胸圍 100 肩寬 26 臀圍/腰圍 107/92 。裙長 124 
-全部以cm表示，手工測量可能存在1-3cm誤差
-MD：身高162cm 體重：48kg
-</t>
-  </si>
-  <si>
-    <t>【cim2238】實拍韓國法式甜美一字領方領碎花上衣230503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍 106 。 肩連袖 33 袖長 / 衣長 63 
-L 胸圍 110 。 肩連袖 35 袖長 / 衣長 65 
-全部以cm表示，手工測量可能存在1-3cm誤差
-MD：身高162cm 體重：48kg
-</t>
-  </si>
-  <si>
-    <t>【cim5376】實拍韓國氣質小眾V領抽褶襯衫230503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-M 胸圍 102 肩連袖，袖長21 / 衣長 68
-L 胸圍106 肩連袖，袖長23 / 衣長70
-全部以cm表示，手工測量可能存在1-3cm誤差
-MD：身高162cm 體重：48kg
-</t>
-  </si>
-  <si>
-    <t>【cimYL337】實拍韓國夏季簍空修身開叉針織罩衫230503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-胸圍 60-86 肩寬 35 袖長 61 衣長 64 
-全部以cm表示，手工測量可能存在1-3cm誤差
-MD：身高162cm 體重：48kg</t>
-  </si>
-  <si>
-    <t>【cim2251】實拍韓國夏季薄軟短板復古水洗牛仔外套230503</t>
-  </si>
-  <si>
-    <t>M 胸圍100 肩寬40. 袖長27 / 衣長 42-45
-L 胸圍104 肩寬42 袖長29 / 衣長44-47
-全部以cm表示，手工測量可能存在1-3cm誤差
-MD：身高162cm 體重：48kg</t>
+    <t>【cimYL356】實拍韓國温柔方領條紋彈性針織短袖230510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+胸圍 64 肩寬 35 袖長 20 衣長 49 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim5161】實拍韓國夏天垂感顯瘦西裝短褲230510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+S 腰圍 62 臀圍 98 腿圍 68 褲長 45
+M 腰圍 66 臀圍 70 腿圍 70 褲長 46
+L 腰圍 70 臀圍 106 腿圍 72 褲長 47 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim5280】實拍韓國方領褶皺g設計師款顯瘦A字洋裝(含髮圈）230510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 84 肩寬 31 袖長 29 裙長 84 腰圍 74 
+L 胸圍 88. 肩寬 33 袖長 31 裙長 86 腰圍 76
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim31020】實拍韓國簡約肌理感燈籠袖抽繩繫帶襯衫230510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 108 肩寬 34 袖長 27 衣長 53 
+L 胸圍 110 肩寬 36 袖長 29 衣長 55 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cimYL368】實拍韓國夏季高質感側腰抽褶顯瘦彈性針織230510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+F 胸圍 66 肩寬 46 袖長 / 衣長 51 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim5381】實拍韓國復古紅格設計感甜辣荷葉邊吊帶背心230510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 106 肩寬 20 袖長 / 衣長 57 
+L 胸圍 110 肩寬 22 袖長 / 衣長 57 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim7095】實拍韓國法式方領高質感2穿肌理感上衣230510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 102 肩寬 29 袖長 32 衣長 59 
+上 胸圍 104 肩寬 31 袖長 34 衣長 61 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cimYL359】實拍韓國夏季彩色條紋鏤空polo領針織背心23051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+胸圍82 肩寬 40 袖長 / 衣長 51
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim5382】實拍韓國褶皺肌理感慵懶度假吊帶裙230510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 96 肩寬 26 腰圍 100 裙長 117 
+L 胸圍 100 肩寬 28 腰圍 104 裙長 119 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim31022】實拍韓國温柔仙氣天絲高腰A字裙230510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 腰圍 62-74 臀圍 116 大腿圍 / 裙長 79 
+L 腰圍 66-78 臀圍 120 大腿圍 / 裙長 81 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim5376】實拍韓國高級感極簡氣質圓領壓褶上衣230510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 胸圍 106 肩連袖 27 衣長 58
+L 胸圍 108 肩連袖 29 衣長 60 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim7096】實拍韓國高級感超顯瘦高腰A字闊腿褲裙230510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 腰圍 62 臀圍 122 大腿圍 80 褲長 95 
+L 腰圍 66 臀圍 124 大腿圍 82 褲長 97 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
+  </si>
+  <si>
+    <t>【cim7098】實拍韓國網紅款復古直筒牛仔短褲（前假口袋）230510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M 腰圍 66 臀圍 108 大腿圍 58 褲長 47 
+L 腰圍 69 臀圍 110 大腿圍 60 褲長 49 
+手工平鋪測量，誤差允許在1~3cm左右，具體以實物為準</t>
   </si>
 </sst>
 </file>
@@ -226,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -237,17 +214,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,7 +512,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9"/>
@@ -549,107 +529,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="150.44999999999999">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" ht="105.45">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="150.44999999999999">
+    <row r="3" spans="1:2" ht="128.6">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="127.3">
+    <row r="4" spans="1:2" ht="128.6">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="173.6">
+    <row r="5" spans="1:2" ht="128.6">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="173.6">
+    <row r="6" spans="1:2" ht="105.45">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="150.44999999999999">
+    <row r="7" spans="1:2" ht="128.6">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="150.44999999999999">
+    <row r="8" spans="1:2" ht="128.6">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="127.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" ht="125.6">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="57.9">
+    <row r="10" spans="1:2" ht="128.6">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="150.44999999999999">
+    <row r="11" spans="1:2" ht="128.6">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="150.44999999999999">
+    <row r="12" spans="1:2" ht="105.45">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="127.3">
+    <row r="13" spans="1:2" ht="128.6">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="124.3">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:2" ht="128.6">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
